--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_10-56.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_10-56.xlsx
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
   </si>
   <si>
     <t>PERLOC 40MG 14 F.C.TAB.</t>
@@ -963,13 +969,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>68.25</v>
+        <v>50</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -981,7 +987,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -989,13 +995,13 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>18</v>
+        <v>68.25</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
@@ -1007,7 +1013,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1015,17 +1021,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>14.1</v>
+        <v>18</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
-        <v>0.10000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1041,17 +1047,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>175</v>
+        <v>14.1</v>
       </c>
       <c r="M17" s="9"/>
       <c r="N17" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1059,7 +1065,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1067,13 +1073,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>2.5</v>
+        <v>175</v>
       </c>
       <c r="M18" s="9"/>
       <c r="N18" s="10">
@@ -1099,7 +1105,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="10">
@@ -1125,7 +1131,7 @@
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M20" s="9"/>
       <c r="N20" s="10">
@@ -1145,51 +1151,77 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M21" s="9"/>
       <c r="N21" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="26.25" customHeight="1">
-      <c r="K22" s="11">
-        <v>1238.3499999999999</v>
-      </c>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c t="s" r="A23" s="12">
-        <v>33</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c t="s" r="F23" s="13">
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
         <v>34</v>
       </c>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-      <c t="s" r="I23" s="15">
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
+        <v>31</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>20</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="K23" s="11">
+        <v>1288.3499999999999</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
+      <c t="s" r="A24" s="12">
         <v>35</v>
       </c>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c t="s" r="F24" s="13">
+        <v>36</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c t="s" r="I24" s="15">
+        <v>37</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="68">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1251,10 +1283,13 @@
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="H21:K21"/>
     <mergeCell ref="L21:M21"/>
-    <mergeCell ref="K22:N22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
